--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8A7BD-855C-4BB0-83D4-2F3CEA5108AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A3AF6-A43B-47D5-85C1-5C2F0170B122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,70 +34,70 @@
     <t>Imagenes</t>
   </si>
   <si>
-    <t>imagenes\Alpinito.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Banano.jpeg</t>
-  </si>
-  <si>
-    <t>imagenes\bon-bon-bun.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Brownie.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Chocoramo.jfif.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Croissant.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Galletas Tosh.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Galletas-festival.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Kiwi.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Leche-de-almendras.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Mango.jpeg</t>
-  </si>
-  <si>
-    <t>imagenes\Manzana.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Nutella (1).jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Papas-naturales.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Papas-limon.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Papas-pollo.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Popetas.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Rosquitas (1).jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Yogurt-alpina.jpg</t>
-  </si>
-  <si>
-    <t>imagenes\Uvas.jpg</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
     <t>Correcto</t>
+  </si>
+  <si>
+    <t>imagenes/Alpinito.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Banano.jpeg</t>
+  </si>
+  <si>
+    <t>imagenes/bon-bon-bun.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Brownie.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Chocoramo.jfif.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Croissant.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Galletas Tosh.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Galletas-festival.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Kiwi.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Leche-de-almendras.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Mango.jpeg</t>
+  </si>
+  <si>
+    <t>imagenes/Manzana.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Nutella (1).jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Papas-naturales.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Papas-limon.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Papas-pollo.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Popetas.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Rosquitas (1).jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Yogurt-alpina.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Uvas.jpg</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,190 +431,190 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.45153324170458131</v>
+        <v>0.58003877913225332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B21" ca="1" si="0">RAND()</f>
-        <v>0.65163305530691695</v>
+        <v>0.70530655653994001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73879220933135237</v>
+        <v>0.3303076338219888</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17000143351927688</v>
+        <v>0.44411435783866693</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77894371220195391</v>
+        <v>0.7312203872214027</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61524581734212547</v>
+        <v>0.82706217911548574</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47808879048787201</v>
+        <v>0.32803720738316933</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36121121246191135</v>
+        <v>4.7512080927296196E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58939073848520607</v>
+        <v>0.24113925282796389</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36073876480313727</v>
+        <v>0.88599383396955056</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55566911237246097</v>
+        <v>0.13251643832805404</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51681621944379352</v>
+        <v>0.29763520451614323</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52774832257473292</v>
+        <v>0.84176562972098079</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15856838916280946</v>
+        <v>0.14681822431735325</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0692288100133793E-2</v>
+        <v>0.87382798151453356</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66831140629717845</v>
+        <v>3.9023851063888726E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6502003240544458E-2</v>
+        <v>0.86094677002148701</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30353833908512629</v>
+        <v>0.83230358492270262</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21540995091807813</v>
+        <v>0.1801441072056702</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7734382152670648</v>
+        <v>0.45862326629246331</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A3AF6-A43B-47D5-85C1-5C2F0170B122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A6B55-4795-4F63-8101-89B173D2AD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Imagenes</t>
   </si>
@@ -98,6 +98,54 @@
   </si>
   <si>
     <t>imagenes/Uvas.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Almojabanas.png</t>
+  </si>
+  <si>
+    <t>imagenes/Brocoli.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Canelazo.png</t>
+  </si>
+  <si>
+    <t>imagenes/Chontaduro.png</t>
+  </si>
+  <si>
+    <t>imagenes/Coliflor.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Muffin de banano.png</t>
+  </si>
+  <si>
+    <t>imagenes/Pandebono.png</t>
+  </si>
+  <si>
+    <t>imagenes/Papas picantes.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Pepinillos.png</t>
+  </si>
+  <si>
+    <t>imagenes/pistachos.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Pizzas.png</t>
+  </si>
+  <si>
+    <t>imagenes/Pizzetas.png</t>
+  </si>
+  <si>
+    <t>imagenes/Pescadito.png</t>
+  </si>
+  <si>
+    <t>imagenes/Rollo de queso.png</t>
+  </si>
+  <si>
+    <t>imagenes/Rollos de canela.png</t>
+  </si>
+  <si>
+    <t>imagenes/salchicha hojaldrada.jpg</t>
   </si>
 </sst>
 </file>
@@ -415,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +491,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.58003877913225332</v>
+        <v>0.59021180941697748</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,8 +499,8 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RAND()</f>
-        <v>0.70530655653994001</v>
+        <f t="shared" ref="B3:B37" ca="1" si="0">RAND()</f>
+        <v>0.62022570114967845</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +509,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3303076338219888</v>
+        <v>0.30662644445267229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +518,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44411435783866693</v>
+        <v>0.79793720275999647</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +527,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7312203872214027</v>
+        <v>0.73622793680547038</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +536,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82706217911548574</v>
+        <v>0.5629618940993919</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,7 +545,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32803720738316933</v>
+        <v>0.75083770021594087</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +554,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7512080927296196E-2</v>
+        <v>8.1589748571661236E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +563,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24113925282796389</v>
+        <v>0.42649791058314035</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,7 +572,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88599383396955056</v>
+        <v>0.79388749503410749</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +581,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13251643832805404</v>
+        <v>0.67929794058416992</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,7 +590,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29763520451614323</v>
+        <v>0.71868126635924701</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,7 +599,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84176562972098079</v>
+        <v>0.83794280229894469</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,7 +608,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14681822431735325</v>
+        <v>0.42080198361704224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +617,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87382798151453356</v>
+        <v>0.32325075150220861</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +626,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9023851063888726E-2</v>
+        <v>0.82817484568621924</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +635,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86094677002148701</v>
+        <v>0.48934619076640684</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +644,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83230358492270262</v>
+        <v>0.37852503074862109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +653,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1801441072056702</v>
+        <v>0.50309833388555014</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +662,151 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45862326629246331</v>
+        <v>0.69477644588261733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4080151832551402E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17243217121356347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3638076059715796E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0848175868901548E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61107441157475906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32882098871429988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52181453628609809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51257386071096989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89150912986352082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52262296250774554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77767006193422861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41051813557189587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42187543175353337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8170631775105157E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42925715840408951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90508004589248348</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A6B55-4795-4F63-8101-89B173D2AD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48049466-2621-45E1-9A02-7BCBFA352FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>imagenes/pistachos.jpg</t>
   </si>
   <si>
-    <t>imagenes/Pizzas.png</t>
-  </si>
-  <si>
     <t>imagenes/Pizzetas.png</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>imagenes/salchicha hojaldrada.jpg</t>
+  </si>
+  <si>
+    <t>imagenes/Pizza.png</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.59021180941697748</v>
+        <v>0.74161508806217025</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" ca="1" si="0">RAND()</f>
-        <v>0.62022570114967845</v>
+        <v>0.22676567165387851</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30662644445267229</v>
+        <v>0.74174527240569865</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79793720275999647</v>
+        <v>0.28389240748640931</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73622793680547038</v>
+        <v>0.74255285598841014</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5629618940993919</v>
+        <v>0.58247485899489315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75083770021594087</v>
+        <v>0.91296937532800271</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1589748571661236E-2</v>
+        <v>0.11306074364032936</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42649791058314035</v>
+        <v>0.39291458509422861</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79388749503410749</v>
+        <v>0.38865594579946727</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67929794058416992</v>
+        <v>0.43411554189414991</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71868126635924701</v>
+        <v>0.40484203270081909</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83794280229894469</v>
+        <v>0.88265318833381112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42080198361704224</v>
+        <v>0.37590629905521566</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32325075150220861</v>
+        <v>0.52807985090935949</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82817484568621924</v>
+        <v>8.3734854179028373E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48934619076640684</v>
+        <v>0.96216257333022037</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37852503074862109</v>
+        <v>2.4090340010977873E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50309833388555014</v>
+        <v>0.54451529362221751</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69477644588261733</v>
+        <v>0.49592916441434309</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4080151832551402E-2</v>
+        <v>0.67250512007132457</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17243217121356347</v>
+        <v>0.24293074945529525</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3638076059715796E-2</v>
+        <v>0.67304793607678137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0848175868901548E-2</v>
+        <v>0.86935533004188126</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61107441157475906</v>
+        <v>0.36407404910889851</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32882098871429988</v>
+        <v>0.96106150590096961</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52181453628609809</v>
+        <v>0.89885743781299854</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51257386071096989</v>
+        <v>0.52497889867261205</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,16 +743,16 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89150912986352082</v>
+        <v>3.8966441241518046E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52262296250774554</v>
+        <v>0.71728250114860814</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,52 +761,52 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77767006193422861</v>
+        <v>0.74508697427414639</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41051813557189587</v>
+        <v>0.21192443516553439</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42187543175353337</v>
+        <v>0.32959515898730418</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8170631775105157E-2</v>
+        <v>0.92016411827568878</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42925715840408951</v>
+        <v>0.26109744095745191</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90508004589248348</v>
+        <v>0.71197731654815255</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48049466-2621-45E1-9A02-7BCBFA352FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Imagenes</t>
   </si>
@@ -40,15 +39,9 @@
     <t>Correcto</t>
   </si>
   <si>
-    <t>imagenes/Alpinito.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Banano.jpeg</t>
   </si>
   <si>
-    <t>imagenes/bon-bon-bun.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Brownie.jpg</t>
   </si>
   <si>
@@ -58,88 +51,28 @@
     <t>imagenes/Croissant.jpg</t>
   </si>
   <si>
-    <t>imagenes/Galletas Tosh.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Galletas-festival.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Kiwi.jpg</t>
   </si>
   <si>
-    <t>imagenes/Leche-de-almendras.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Mango.jpeg</t>
-  </si>
-  <si>
     <t>imagenes/Manzana.jpg</t>
   </si>
   <si>
     <t>imagenes/Nutella (1).jpg</t>
   </si>
   <si>
-    <t>imagenes/Papas-naturales.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Papas-limon.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Papas-pollo.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Popetas.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Rosquitas (1).jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Yogurt-alpina.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Uvas.jpg</t>
   </si>
   <si>
-    <t>imagenes/Almojabanas.png</t>
-  </si>
-  <si>
     <t>imagenes/Brocoli.jpg</t>
   </si>
   <si>
-    <t>imagenes/Canelazo.png</t>
-  </si>
-  <si>
-    <t>imagenes/Chontaduro.png</t>
-  </si>
-  <si>
     <t>imagenes/Coliflor.jpg</t>
   </si>
   <si>
     <t>imagenes/Muffin de banano.png</t>
   </si>
   <si>
-    <t>imagenes/Pandebono.png</t>
-  </si>
-  <si>
-    <t>imagenes/Papas picantes.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Pepinillos.png</t>
-  </si>
-  <si>
-    <t>imagenes/pistachos.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Pizzetas.png</t>
-  </si>
-  <si>
-    <t>imagenes/Pescadito.png</t>
-  </si>
-  <si>
-    <t>imagenes/Rollo de queso.png</t>
-  </si>
-  <si>
-    <t>imagenes/Rollos de canela.png</t>
   </si>
   <si>
     <t>imagenes/salchicha hojaldrada.jpg</t>
@@ -151,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,15 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,98 +424,98 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f ca="1">RAND()</f>
-        <v>0.74161508806217025</v>
+        <f t="shared" ref="B2:B15" ca="1" si="0">RAND()</f>
+        <v>0.29713840112411116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B37" ca="1" si="0">RAND()</f>
-        <v>0.22676567165387851</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68116784031248712</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74174527240569865</v>
+        <v>0.92018244210329181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28389240748640931</v>
+        <v>0.98097518574011144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74255285598841014</v>
+        <v>0.64720359354788581</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58247485899489315</v>
+        <v>0.64994776568577284</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91296937532800271</v>
+        <v>0.58955334319451802</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11306074364032936</v>
+        <v>0.24733747333273903</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39291458509422861</v>
+        <v>0.90018952661478857</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38865594579946727</v>
+        <v>0.43775482284573841</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43411554189414991</v>
+        <v>0.98577727265974024</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +524,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40484203270081909</v>
+        <v>2.836789677509155E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,217 +533,22 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88265318833381112</v>
+        <v>0.50555082259593365</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37590629905521566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52807985090935949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3734854179028373E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96216257333022037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4090340010977873E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54451529362221751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49592916441434309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67250512007132457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24293074945529525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67304793607678137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86935533004188126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36407404910889851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96106150590096961</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89885743781299854</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52497889867261205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8966441241518046E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71728250114860814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74508697427414639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21192443516553439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32959515898730418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92016411827568878</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26109744095745191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71197731654815255</v>
+        <v>0.79483233539723175</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C33">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Imagenes</t>
   </si>
@@ -51,24 +51,12 @@
     <t>imagenes/Croissant.jpg</t>
   </si>
   <si>
-    <t>imagenes/Kiwi.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Manzana.jpg</t>
   </si>
   <si>
-    <t>imagenes/Nutella (1).jpg</t>
-  </si>
-  <si>
     <t>imagenes/Uvas.jpg</t>
   </si>
   <si>
-    <t>imagenes/Brocoli.jpg</t>
-  </si>
-  <si>
-    <t>imagenes/Coliflor.jpg</t>
-  </si>
-  <si>
     <t>imagenes/Muffin de banano.png</t>
   </si>
   <si>
@@ -78,7 +66,10 @@
     <t>imagenes/salchicha hojaldrada.jpg</t>
   </si>
   <si>
-    <t>imagenes/Pizza.png</t>
+    <t>imagenes/Arepa.png</t>
+  </si>
+  <si>
+    <t>imagenes/Rollo.png</t>
   </si>
 </sst>
 </file>
@@ -396,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -424,125 +415,98 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B15" ca="1" si="0">RAND()</f>
-        <v>0.29713840112411116</v>
+        <f t="shared" ref="B2:B12" ca="1" si="0">RAND()</f>
+        <v>0.65582085341340501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68116784031248712</v>
+        <v>0.73378865464595211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92018244210329181</v>
+        <v>0.86265220685282862</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98097518574011144</v>
+        <v>0.37213467588696247</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64720359354788581</v>
+        <v>0.27443748421878644</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64994776568577284</v>
+        <v>0.55965505822565487</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58955334319451802</v>
+        <v>0.96605838190471993</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24733747333273903</v>
+        <v>0.26344269571638812</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90018952661478857</v>
+        <v>0.19727824334369992</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43775482284573841</v>
+        <v>0.95800651692961025</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98577727265974024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.836789677509155E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50555082259593365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79483233539723175</v>
+        <v>4.7817557108985498E-2</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -66,10 +66,10 @@
     <t>imagenes/salchicha hojaldrada.jpg</t>
   </si>
   <si>
-    <t>imagenes/Arepa.png</t>
-  </si>
-  <si>
     <t>imagenes/Rollo.png</t>
+  </si>
+  <si>
+    <t>imagenes/Arepa.PNG</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B12" ca="1" si="0">RAND()</f>
-        <v>0.65582085341340501</v>
+        <v>0.69984571438468457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,7 +425,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73378865464595211</v>
+        <v>0.26399762780209457</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,7 +434,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86265220685282862</v>
+        <v>0.95267391251581857</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37213467588696247</v>
+        <v>0.89339256317911131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27443748421878644</v>
+        <v>0.23236011334581297</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55965505822565487</v>
+        <v>0.10127924983431946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96605838190471993</v>
+        <v>0.13308858453625194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26344269571638812</v>
+        <v>0.52441408931674316</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,25 +488,25 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19727824334369992</v>
+        <v>0.31260230760423269</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95800651692961025</v>
+        <v>0.43768670081102767</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7817557108985498E-2</v>
+        <v>0.52702774712396938</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/imagenes.xlsx
+++ b/html/resources/imagenes.xlsx
@@ -66,10 +66,10 @@
     <t>imagenes/salchicha hojaldrada.jpg</t>
   </si>
   <si>
-    <t>imagenes/Rollo.png</t>
-  </si>
-  <si>
     <t>imagenes/Arepa.PNG</t>
+  </si>
+  <si>
+    <t>imagenes/Rollo.PNG</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B12" ca="1" si="0">RAND()</f>
-        <v>0.69984571438468457</v>
+        <v>0.14114901872306951</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,7 +425,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26399762780209457</v>
+        <v>0.81452755939766586</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,7 +434,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95267391251581857</v>
+        <v>0.80388442451490094</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89339256317911131</v>
+        <v>6.0331687705261761E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23236011334581297</v>
+        <v>0.94520003024817756</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10127924983431946</v>
+        <v>0.5542966736362771</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13308858453625194</v>
+        <v>0.30675633794408952</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52441408931674316</v>
+        <v>0.17526770125130287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,25 +488,25 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31260230760423269</v>
+        <v>0.69380830168704599</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43768670081102767</v>
+        <v>0.36853152085633911</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52702774712396938</v>
+        <v>0.6927466890830517</v>
       </c>
     </row>
   </sheetData>
